--- a/data/georgia_census/kakheti/lagodexi/population_total.xlsx
+++ b/data/georgia_census/kakheti/lagodexi/population_total.xlsx
@@ -1353,13 +1353,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1115ACD-4BA9-4534-8CEB-DE4441B8032A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C8F7CCB-7251-4F07-B47A-99DD82653E53}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E304F1D7-DF03-4AC5-BB7A-E3606665F0D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF683172-FDB9-41F6-8BD6-EAA91728E092}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E10526-87F9-40CA-9EA2-047F14FBA710}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB989EE8-C3E8-4104-9C31-1C0B9CB9DD69}"/>
 </file>